--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_21.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_21.xlsx
@@ -508,344 +508,344 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_6</t>
+          <t>model_1_21_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995949251845426</v>
+        <v>0.9475606636636933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8258224712078523</v>
+        <v>0.7174284867973453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8133879182987139</v>
+        <v>0.7773009152631305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971464690950615</v>
+        <v>0.9286548412288443</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001686134733555751</v>
+        <v>0.1683453296653843</v>
       </c>
       <c r="G2" t="n">
-        <v>1.164725937046866</v>
+        <v>1.889557009908332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6675005958553024</v>
+        <v>0.7965817132689241</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005820264215756655</v>
+        <v>0.2603538868757572</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08575301225389007</v>
+        <v>0.9826348372001756</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04106257095647751</v>
+        <v>0.4102990734395878</v>
       </c>
       <c r="L2" t="n">
-        <v>1.025924788189272</v>
+        <v>0.9285932441377951</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04170926540153037</v>
+        <v>0.416760873697661</v>
       </c>
       <c r="N2" t="n">
-        <v>142.7706330189087</v>
+        <v>37.56347575115045</v>
       </c>
       <c r="O2" t="n">
-        <v>284.1058055621251</v>
+        <v>74.52805933937627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_5</t>
+          <t>model_1_21_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996187971811732</v>
+        <v>0.9476190233980478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.825703793992266</v>
+        <v>0.7174071174869896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8143517005779365</v>
+        <v>0.776907213880169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9975937431397817</v>
+        <v>0.9283022329293706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001586766910274551</v>
+        <v>0.1681579781578041</v>
       </c>
       <c r="G3" t="n">
-        <v>1.16551953213395</v>
+        <v>1.889699906585077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6640532025258307</v>
+        <v>0.7979899602876594</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004907972320611602</v>
+        <v>0.2616406306842208</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09560429883538012</v>
+        <v>0.9778405191966861</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03983424293587806</v>
+        <v>0.4100706989749501</v>
       </c>
       <c r="L3" t="n">
-        <v>1.024396980404916</v>
+        <v>0.9286727127122354</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04046159244248402</v>
+        <v>0.416528902563496</v>
       </c>
       <c r="N3" t="n">
-        <v>142.8921134453163</v>
+        <v>37.56570279049993</v>
       </c>
       <c r="O3" t="n">
-        <v>284.2272859885327</v>
+        <v>74.53028637872576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_4</t>
+          <t>model_1_21_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995887457638585</v>
+        <v>0.9476745896792091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8255444607160412</v>
+        <v>0.7173848703431913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8146281530011162</v>
+        <v>0.7765147612309942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974128794216435</v>
+        <v>0.9279501491277881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001711856737124491</v>
+        <v>0.1679795944372247</v>
       </c>
       <c r="G4" t="n">
-        <v>1.166584994485728</v>
+        <v>1.889848673338094</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6630643482377494</v>
+        <v>0.799393740658046</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005276874800268106</v>
+        <v>0.2629254604866472</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1040345227120168</v>
+        <v>0.973042990686931</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04137459047681911</v>
+        <v>0.4098531376447235</v>
       </c>
       <c r="L4" t="n">
-        <v>1.026320271113057</v>
+        <v>0.9287483774355189</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04202619891741226</v>
+        <v>0.4163079148597998</v>
       </c>
       <c r="N4" t="n">
-        <v>142.7403533727005</v>
+        <v>37.56782553727827</v>
       </c>
       <c r="O4" t="n">
-        <v>284.0755259159169</v>
+        <v>74.53240912550409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_9</t>
+          <t>model_1_21_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995343646929435</v>
+        <v>0.9477275109823355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8253813383163942</v>
+        <v>0.7173617707733084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8136536661006752</v>
+        <v>0.776123868105566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9960415807485744</v>
+        <v>0.927598998885021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001938219396610271</v>
+        <v>0.1678097018557475</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167675794723277</v>
+        <v>1.890003140268265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6665500313766297</v>
+        <v>0.8007919427024165</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008073872927103078</v>
+        <v>0.264206883531412</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08313970405296192</v>
+        <v>0.9683045660091719</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04402521319210471</v>
+        <v>0.4096458248972489</v>
       </c>
       <c r="L5" t="n">
-        <v>1.029800659651613</v>
+        <v>0.9288204404865845</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04471856629081299</v>
+        <v>0.4160973371437893</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4919711283517</v>
+        <v>37.5698493372963</v>
       </c>
       <c r="O5" t="n">
-        <v>283.8271436715681</v>
+        <v>74.53443292552213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_8</t>
+          <t>model_1_21_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999536663891778</v>
+        <v>0.9477778253531517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8253756333873685</v>
+        <v>0.71733787411857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8135517191100204</v>
+        <v>0.775734185799785</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960788628228506</v>
+        <v>0.9272483479267641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001928648920080548</v>
+        <v>0.1676481782756696</v>
       </c>
       <c r="G6" t="n">
-        <v>1.16771394360994</v>
+        <v>1.890162937308535</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6669146898509759</v>
+        <v>0.8021858137151168</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007997829761625642</v>
+        <v>0.2654864845792096</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08286577379474283</v>
+        <v>0.9635719076623513</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04391638555346453</v>
+        <v>0.4094486271507937</v>
       </c>
       <c r="L6" t="n">
-        <v>1.029653510926209</v>
+        <v>0.9288889536723768</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04460802472565194</v>
+        <v>0.4158970337299527</v>
       </c>
       <c r="N6" t="n">
-        <v>142.5018711252356</v>
+        <v>37.57177534472827</v>
       </c>
       <c r="O6" t="n">
-        <v>283.837043668452</v>
+        <v>74.53635893295409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_0</t>
+          <t>model_1_21_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996042202062512</v>
+        <v>0.947825540576584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8253612050501717</v>
+        <v>0.717313151618604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8148262858453247</v>
+        <v>0.7753456713592338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981606926583614</v>
+        <v>0.9268981822662582</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001647443957546497</v>
+        <v>0.1674949987051417</v>
       </c>
       <c r="G7" t="n">
-        <v>1.167810425967212</v>
+        <v>1.890328256779645</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6623556385424182</v>
+        <v>0.8035755073416069</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003751581832806163</v>
+        <v>0.2667643146707452</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1007097125385268</v>
+        <v>0.958868798957843</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04058871712122098</v>
+        <v>0.4092615284938735</v>
       </c>
       <c r="L7" t="n">
-        <v>1.025329906799925</v>
+        <v>0.9289539275936463</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0412279488420486</v>
+        <v>0.4157069884562162</v>
       </c>
       <c r="N7" t="n">
-        <v>142.8170606176598</v>
+        <v>37.57360357327911</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1522331608763</v>
+        <v>74.53818716150494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_1</t>
+          <t>model_1_21_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996125820541949</v>
+        <v>0.9478707422662102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8253148375907118</v>
+        <v>0.7172876743595737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8142728325021544</v>
+        <v>0.7749582427136439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981863693770451</v>
+        <v>0.9265486280951533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001612637542245879</v>
+        <v>0.1673498882999917</v>
       </c>
       <c r="G8" t="n">
-        <v>1.168120485382123</v>
+        <v>1.890498623328091</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6643353090598694</v>
+        <v>0.8049613171424786</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003699209774499576</v>
+        <v>0.268039913305443</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09878583845634271</v>
+        <v>0.9541572480852417</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04015765857524414</v>
+        <v>0.4090842068572089</v>
       </c>
       <c r="L8" t="n">
-        <v>1.024794748531527</v>
+        <v>0.929015478830584</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04079010155487308</v>
+        <v>0.4155268741810307</v>
       </c>
       <c r="N8" t="n">
-        <v>142.8597684308303</v>
+        <v>37.57533703757695</v>
       </c>
       <c r="O8" t="n">
-        <v>284.1949409740467</v>
+        <v>74.53992062580276</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999560081825121</v>
+        <v>0.9479134696576805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8252977031398018</v>
+        <v>0.7172614450821032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8133577152226942</v>
+        <v>0.7745719232940544</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9965160343304397</v>
+        <v>0.9261993618772375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00183117114735584</v>
+        <v>0.1672127211025144</v>
       </c>
       <c r="G9" t="n">
-        <v>1.168235063534255</v>
+        <v>1.890674018627312</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6676086305069503</v>
+        <v>0.8063431593062632</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007106143718427402</v>
+        <v>0.2693144611367885</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08136227037105667</v>
+        <v>0.9494397287997944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04279218558750932</v>
+        <v>0.4089165209459192</v>
       </c>
       <c r="L9" t="n">
-        <v>1.028154763192255</v>
+        <v>0.9290736608104586</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04346611973402061</v>
+        <v>0.4153565473842625</v>
       </c>
       <c r="N9" t="n">
-        <v>142.6055990911807</v>
+        <v>37.57697699615341</v>
       </c>
       <c r="O9" t="n">
-        <v>283.9407716343972</v>
+        <v>74.54156058437923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_3</t>
+          <t>model_1_21_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996007990954601</v>
+        <v>0.9479537467808785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8252460261396725</v>
+        <v>0.7172345137245302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8139840397824407</v>
+        <v>0.7741865222821813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979516795622239</v>
+        <v>0.9258505736189587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001661684422547156</v>
+        <v>0.1670834199698826</v>
       </c>
       <c r="G10" t="n">
-        <v>1.16858062787207</v>
+        <v>1.89085410873941</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6653683038731213</v>
+        <v>0.8077217163788986</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004177899782251937</v>
+        <v>0.270587264790233</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1009664217808208</v>
+        <v>0.9447015483061574</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0407637635964487</v>
+        <v>0.4087583882562932</v>
       </c>
       <c r="L10" t="n">
-        <v>1.025548857890556</v>
+        <v>0.9291285062548134</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04140575212427888</v>
+        <v>0.4151959242628497</v>
       </c>
       <c r="N10" t="n">
-        <v>142.799846957417</v>
+        <v>37.57852414101323</v>
       </c>
       <c r="O10" t="n">
-        <v>284.1350195006333</v>
+        <v>74.54310772923905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_2</t>
+          <t>model_1_21_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996107253519124</v>
+        <v>0.9479916891702045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8252261281471851</v>
+        <v>0.7172069030853825</v>
       </c>
       <c r="D11" t="n">
-        <v>0.813869466114264</v>
+        <v>0.7738020205066907</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980914124194863</v>
+        <v>0.9255020217819283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001620366115064592</v>
+        <v>0.1669616140034911</v>
       </c>
       <c r="G11" t="n">
-        <v>1.168713685839455</v>
+        <v>1.891038741210526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6657781272408263</v>
+        <v>0.8090970569351348</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003892890726459878</v>
+        <v>0.2718592056915017</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0994437908759311</v>
+        <v>0.9399572228072848</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04025377143901664</v>
+        <v>0.4086093660251697</v>
       </c>
       <c r="L11" t="n">
-        <v>1.024913577477605</v>
+        <v>0.929180172487087</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04088772810017238</v>
+        <v>0.4150445550805535</v>
       </c>
       <c r="N11" t="n">
-        <v>142.8502063166357</v>
+        <v>37.57998269850581</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1853788598521</v>
+        <v>74.54456628673162</v>
       </c>
     </row>
   </sheetData>
